--- a/data/SampleData/dung-luong-mau.xlsx
+++ b/data/SampleData/dung-luong-mau.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Application\laragon\www\techshop\data\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Application\laragon\www\tekno\data\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C128421-F43F-4372-806A-B97A8CB2681A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154E6047-A225-4C40-9243-3DE5CC31BAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="94">
   <si>
     <t>sanpham_id</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
 </sst>
 </file>
@@ -661,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D590"/>
+  <dimension ref="A1:D591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="M588" sqref="M588"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="K593" sqref="K593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8935,6 +8938,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
